--- a/export_product_cost_data.xlsx
+++ b/export_product_cost_data.xlsx
@@ -103,11 +103,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G140" activeCellId="0" sqref="G140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M244" activeCellId="0" sqref="M244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,7 +330,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>100758472</v>
+        <v>100758471</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>180</v>
@@ -339,7 +339,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>15</v>
@@ -347,7 +347,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>100758473</v>
+        <v>100758472</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>180</v>
@@ -364,7 +364,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>100758475</v>
+        <v>100758473</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>180</v>
@@ -381,7 +381,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>100758476</v>
+        <v>100758475</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>180</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>133090093</v>
+        <v>100758476</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>180</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>133090272</v>
+        <v>133090093</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>180</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>133145395</v>
+        <v>133090272</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>180</v>
@@ -449,33 +449,33 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>197368454</v>
+        <v>133145395</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>435</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>229155320</v>
+        <v>197368454</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>85</v>
@@ -483,67 +483,67 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>316845093</v>
+        <v>210049114</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>346</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>326815155</v>
+        <v>229155320</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>326815160</v>
+        <v>254289327</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>326815162</v>
+        <v>277354401</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>320</v>
+        <v>630</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>15</v>
@@ -551,16 +551,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>326815163</v>
+        <v>315307666</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>100</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>15</v>
@@ -568,16 +568,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>326815164</v>
+        <v>315328243</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>960</v>
+        <v>390</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>15</v>
@@ -585,16 +585,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>326815165</v>
+        <v>315330416</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1600</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>15</v>
@@ -602,27 +602,27 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>326815168</v>
+        <v>316845093</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>326815169</v>
+        <v>326815155</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>870</v>
+        <v>660</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>100</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>326815170</v>
+        <v>326815160</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1450</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>100</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>326815171</v>
+        <v>326815162</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>100</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>326815172</v>
+        <v>326815163</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>100</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>326815174</v>
+        <v>326815164</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>100</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>326815175</v>
+        <v>326815165</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>610</v>
+        <v>1600</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>100</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>326815179</v>
+        <v>326815168</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1830</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>100</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>326815182</v>
+        <v>326815169</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3050</v>
+        <v>870</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>100</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>326815183</v>
+        <v>326815170</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>120</v>
+        <v>1450</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>100</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>326815184</v>
+        <v>326815171</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>100</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>326815185</v>
+        <v>326815172</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>100</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>326815189</v>
+        <v>326815174</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>100</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>326815191</v>
+        <v>326815175</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>300</v>
+        <v>610</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>100</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>326815195</v>
+        <v>326815179</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>500</v>
+        <v>1830</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>100</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>326815198</v>
+        <v>326815182</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>60</v>
+        <v>3050</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>100</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>326815199</v>
+        <v>326815183</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>100</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>326815202</v>
+        <v>326815184</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>100</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>326815203</v>
+        <v>326815185</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>100</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>326815204</v>
+        <v>326815189</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>100</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>326815205</v>
+        <v>326815191</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>100</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>326815207</v>
+        <v>326815195</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>100</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>326815211</v>
+        <v>326815198</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>100</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>326815214</v>
+        <v>326815199</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>100</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>326815216</v>
+        <v>326815202</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>100</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>326815218</v>
+        <v>326815203</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>100</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>326815219</v>
+        <v>326815204</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>100</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>326819005</v>
+        <v>326815205</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>100</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>326821826</v>
+        <v>326815207</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>100</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>326821965</v>
+        <v>326815211</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>100</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>326821966</v>
+        <v>326815214</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>100</v>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>332602189</v>
+        <v>326815216</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>15</v>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>332602191</v>
+        <v>326815218</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>15</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>332602192</v>
+        <v>326815219</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>15</v>
@@ -1180,16 +1180,16 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>332602193</v>
+        <v>326819005</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>15</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>332602194</v>
+        <v>326821826</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>15</v>
@@ -1214,16 +1214,16 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>332602195</v>
+        <v>326821965</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>800</v>
+        <v>510</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>15</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>332602197</v>
+        <v>326821966</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>15</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>332602199</v>
+        <v>332602189</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>400</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>17</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>332602200</v>
+        <v>332602191</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>17</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>332602201</v>
+        <v>332602192</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>17</v>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>332679775</v>
+        <v>332602193</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>17</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>332679777</v>
+        <v>332602194</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>17</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>332679783</v>
+        <v>332602195</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>17</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>332679784</v>
+        <v>332602197</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>17</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>332679785</v>
+        <v>332602199</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>17</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>334019590</v>
+        <v>332602200</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>17</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>334019591</v>
+        <v>332602201</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>17</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>334019592</v>
+        <v>332679775</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>17</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>334019593</v>
+        <v>332679777</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>17</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>334019594</v>
+        <v>332679783</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>17</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>334019595</v>
+        <v>332679784</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>17</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>334019596</v>
+        <v>332679785</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>17</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>334019597</v>
+        <v>334019590</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>17</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>334019599</v>
+        <v>334019591</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>17</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>334019600</v>
+        <v>334019592</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>17</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>334019603</v>
+        <v>334019593</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>17</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>334019604</v>
+        <v>334019594</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>17</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>334019605</v>
+        <v>334019595</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>17</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>334019606</v>
+        <v>334019596</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>17</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>334019608</v>
+        <v>334019597</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>17</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>334019609</v>
+        <v>334019599</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1250</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>17</v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>334019610</v>
+        <v>334019600</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1150</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>17</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>334019611</v>
+        <v>334019603</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>17</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>334019612</v>
+        <v>334019604</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>17</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>334019613</v>
+        <v>334019605</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>950</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>17</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>334019614</v>
+        <v>334019606</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1100</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>17</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>334019615</v>
+        <v>334019608</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>17</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>334019616</v>
+        <v>334019609</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>17</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>334019617</v>
+        <v>334019610</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>650</v>
+        <v>1150</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>17</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>334019619</v>
+        <v>334019611</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>17</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>334019620</v>
+        <v>334019612</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>17</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>334019621</v>
+        <v>334019613</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>17</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>334019622</v>
+        <v>334019614</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>17</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>334019623</v>
+        <v>334019615</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>1050</v>
+        <v>250</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>17</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>334019624</v>
+        <v>334019616</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>17</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>334019625</v>
+        <v>334019617</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>17</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>334019626</v>
+        <v>334019619</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>17</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>334019627</v>
+        <v>334019620</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>17</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>334019628</v>
+        <v>334019621</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>17</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>334019629</v>
+        <v>334019622</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>17</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>334019630</v>
+        <v>334019623</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>400</v>
+        <v>1050</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>17</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>334019632</v>
+        <v>334019624</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>500</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>17</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>334019633</v>
+        <v>334019625</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>17</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>334019634</v>
+        <v>334019626</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>17</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>334019636</v>
+        <v>334019627</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>17</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>334019637</v>
+        <v>334019628</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>17</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>334019638</v>
+        <v>334019629</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>17</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>334019639</v>
+        <v>334019630</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>17</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>334019640</v>
+        <v>334019632</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>17</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>334019641</v>
+        <v>334019633</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>17</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>334019642</v>
+        <v>334019634</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>17</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>334019643</v>
+        <v>334019636</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>17</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>334019645</v>
+        <v>334019637</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>17</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>334019646</v>
+        <v>334019638</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>17</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>334019653</v>
+        <v>334019639</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>17</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>334019654</v>
+        <v>334019640</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>17</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>334019655</v>
+        <v>334019641</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>800</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>17</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>334019656</v>
+        <v>334019642</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>17</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>334019657</v>
+        <v>334019643</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>900</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>17</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>334019658</v>
+        <v>334019645</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>17</v>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>334019659</v>
+        <v>334019646</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>17</v>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>334019660</v>
+        <v>334019653</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>17</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>334019661</v>
+        <v>334019654</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>17</v>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>334019662</v>
+        <v>334019655</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>800</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>17</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>334019663</v>
+        <v>334019656</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>17</v>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>334019664</v>
+        <v>334019657</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>17</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>334019665</v>
+        <v>334019658</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>17</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>334019666</v>
+        <v>334019659</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>1900</v>
+        <v>350</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>17</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>334020189</v>
+        <v>334019660</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D127" s="2" t="n">
         <v>17</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>334020192</v>
+        <v>334019661</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>17</v>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>334020193</v>
+        <v>334019662</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>90</v>
+        <v>800</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D129" s="2" t="n">
         <v>17</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>334020195</v>
+        <v>334019663</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>17</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>334020196</v>
+        <v>334019664</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>17</v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>334020197</v>
+        <v>334019665</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>17</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>334020198</v>
+        <v>334019666</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>17</v>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>334020199</v>
+        <v>334020189</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>17</v>
@@ -2591,13 +2591,13 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>334020653</v>
+        <v>334020192</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>17</v>
@@ -2608,69 +2608,1990 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>338491504</v>
+        <v>334020193</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
+        <v>334020195</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>334020196</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>334020197</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>334020198</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>334020199</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>334020653</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>338491504</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
         <v>338495437</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B144" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="C137" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E137" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
-        <v>338491504</v>
-      </c>
-      <c r="B138" s="2" t="n">
+      <c r="C144" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>338496756</v>
+      </c>
+      <c r="B145" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E138" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
-        <v>338496756</v>
-      </c>
-      <c r="B139" s="2" t="n">
+      <c r="C145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>342394684</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>342450787</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>342540053</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>342582484</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>342605953</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>342825912</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>342866889</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>342903513</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>342924011</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>342924012</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>343484480</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>343490137</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>343500469</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>343533542</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>343547687</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>343547688</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>343602361</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>343603606</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>343603607</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>344217708</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>345359685</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>345359686</v>
+      </c>
+      <c r="B167" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" s="2" t="n">
+      <c r="C167" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>345359687</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>345379903</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>345379909</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>345379912</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>345379917</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>345379919</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>345379923</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>345379924</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>345379931</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>345379934</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>345379942</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>345379943</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>345379946</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>345379959</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>345379962</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>345379963</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>345379965</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>345388112</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>345388113</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>345388114</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>345388115</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>345388116</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>345390726</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>345794420</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>345794421</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>345817599</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>345817764</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>345825034</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>345825035</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>345852227</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>345852228</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>495</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>345862369</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>345862370</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>495</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>345907578</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>345921270</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>345921271</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>345921272</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>347087976</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>347087984</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>347088062</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>347088088</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>347533010</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>347533024</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>347533074</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>347533141</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>495</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>347533264</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>347533521</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>347533522</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>347533525</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>347533526</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>347533529</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>347533537</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>347533545</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>347533558</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>347533593</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>347533599</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>347533638</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>347533650</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>347533668</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>347533688</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>348868279</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>348868287</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>348868288</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>348868314</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>348868315</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>348868324</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>348868339</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>348868342</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>348868348</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>348868353</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>348868357</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>348868372</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>348868404</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>348868416</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>348868418</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>348868420</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>348868431</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>348868432</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>348868476</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>348868479</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>870</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>348868495</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>348868502</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>348868512</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>348868524</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>348868530</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E252" s="2" t="n">
         <v>15</v>
       </c>
     </row>
